--- a/generated-files/TroopUpgrade.xlsx
+++ b/generated-files/TroopUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1819B3-312D-4FF6-A300-7CEA8198A3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A92534-B513-4D7C-B1BC-64CA1B504C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42165" yWindow="-17010" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopUpgrade" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>兵种升级ID</t>
   </si>
   <si>
-    <t>troopUpgradeId</t>
-  </si>
-  <si>
     <t>兵种模板ID</t>
   </si>
   <si>
@@ -68,6 +65,10 @@
   </si>
   <si>
     <t>upgradeRequirements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +435,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,51 +452,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/generated-files/TroopUpgrade.xlsx
+++ b/generated-files/TroopUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A92534-B513-4D7C-B1BC-64CA1B504C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AE1CF1-05C3-499C-BAEA-54C82BD025D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42165" yWindow="-17010" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopUpgrade" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,10 +501,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>10004</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>10005</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>10007</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>10008</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>10009</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>10010</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>10011</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>10012</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>10013</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>10014</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>10015</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C17">
         <v>1</v>
